--- a/medicine/Enfance/Tom-Tom_et_Nana/Tom-Tom_et_Nana.xlsx
+++ b/medicine/Enfance/Tom-Tom_et_Nana/Tom-Tom_et_Nana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Tom-Tom et Nana, d'abord intitulée La Famille Dubouchon lors de sa création, est une série de bande dessinée jeunesse qui paraît dans la revue mensuelle J'aime lire dès le premier album en 1977[1]. Les autrices initiales de la série sont Jacqueline Cohen pour les textes et Bernadette Després pour les dessins. Elles ont ensuite été rejointes, pour les scénarios, par Évelyne Reberg. Catherine Viansson-Ponté met en couleur.
-La série met en scène la famille Dubouchon, tenancière du restaurant À la bonne fourchette, dont la tranquillité est troublée par les fantaisies des deux plus jeunes enfants, Tom-Tom et Nana[1].
+Tom-Tom et Nana, d'abord intitulée La Famille Dubouchon lors de sa création, est une série de bande dessinée jeunesse qui paraît dans la revue mensuelle J'aime lire dès le premier album en 1977. Les autrices initiales de la série sont Jacqueline Cohen pour les textes et Bernadette Després pour les dessins. Elles ont ensuite été rejointes, pour les scénarios, par Évelyne Reberg. Catherine Viansson-Ponté met en couleur.
+La série met en scène la famille Dubouchon, tenancière du restaurant À la bonne fourchette, dont la tranquillité est troublée par les fantaisies des deux plus jeunes enfants, Tom-Tom et Nana.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Réception</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Extrêmement peu médiatisée au début, sans doute par la faute de son statut de bande dessinée en fin de magazine donc créée uniquement pour fidéliser les jeunes lecteurs, la BD connut pourtant un grand succès qui atteint son apogée vers les années 1995-2000 (pendant lesquelles un dessin animé est créé). Mais, pendant les années 2000, elle perd en régularité : les histoires, qui avaient jusque-là toujours fait 10 pages, changent souvent de nombre de pages. Les histoires (qui ne font plus qu'une page) paraissent irrégulièrement dans J'aime lire. 
-En 2019, au festival de la bande dessinée d'Angoulême, les dessins de Tom-Tom et Nana de Bernadette Després sont exposés dans une salle du musée[2]. Elle y est honorée d'un Fauve d'honneur[3].
-En janvier 2021, Bernadette Després est faite chevalier de la Légion d'honneur[4].
+En 2019, au festival de la bande dessinée d'Angoulême, les dessins de Tom-Tom et Nana de Bernadette Després sont exposés dans une salle du musée. Elle y est honorée d'un Fauve d'honneur.
+En janvier 2021, Bernadette Després est faite chevalier de la Légion d'honneur.
 </t>
         </is>
       </c>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>La famille Dubouchon
-Tom-Tom Dubouchon : le cadet des enfants et seul garçon de la famille, cancre, qui est fatigué par les excès de Nana. Le plus souvent, c'est lui qui élabore les plus grosses bêtises. Rusé et débrouillard, il a environ 8 à 9 ans.
+          <t>La famille Dubouchon</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tom-Tom Dubouchon : le cadet des enfants et seul garçon de la famille, cancre, qui est fatigué par les excès de Nana. Le plus souvent, c'est lui qui élabore les plus grosses bêtises. Rusé et débrouillard, il a environ 8 à 9 ans.
 Nana Dubouchon : la benjamine, qui se laisse aller aux bêtises de Tom-Tom qu'elle admire autant que Marie-Lou. Elle a environ 6 à 7 ans. Son caractère, assez simplet au début, évolue ensuite vers une personnalité plus fofolle.
 Adrien Dubouchon : père des enfants et chef-cuisinier du restaurant. Souvent grincheux, il semblerait qu'il soit cependant un cuisinier renommé, couronné de nombreux prix, sa chouquette royale est célèbre.
 Yvonne Dubouchon : mère des enfants. Plus coulante que son mari mais tout aussi dépassée par les excentricités de ses enfants.
@@ -584,11 +603,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Employés
-Mélanie Lano : aide-cuisinière. Dans le tome 33, mama Marto sous-entend que son fils Gino a une relation amoureuse avec elle.
-Gino Marto : serveur originaire d'Italie, toujours très chic et pourvu d'une mère très excentrique et turbulente. Il aime beaucoup Tom-Tom et Nana, mais il lui arrive d'exploser devant leurs farces.
-Clients
-Arthur et ses parents : très capricieux et colérique, Arthur est un enfant-roi dont les moindres désirs sont exaucés. Ses parents le protègent et le gâtent à l'excès, rendant Arthur incapable de stabilité émotionnelle. D'ailleurs, seuls Tom-Tom et Nana acceptent de jouer avec lui car forcés.
+          <t>Employés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mélanie Lano : aide-cuisinière. Dans le tome 33, mama Marto sous-entend que son fils Gino a une relation amoureuse avec elle.
+Gino Marto : serveur originaire d'Italie, toujours très chic et pourvu d'une mère très excentrique et turbulente. Il aime beaucoup Tom-Tom et Nana, mais il lui arrive d'exploser devant leurs farces.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tom-Tom_et_Nana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tom-Tom_et_Nana</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les employés et clients du restaurant</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Clients</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Arthur et ses parents : très capricieux et colérique, Arthur est un enfant-roi dont les moindres désirs sont exaucés. Ses parents le protègent et le gâtent à l'excès, rendant Arthur incapable de stabilité émotionnelle. D'ailleurs, seuls Tom-Tom et Nana acceptent de jouer avec lui car forcés.
 M. Henri : client régulier d'une soixantaine d'années. Toujours très calme et posé lors des repas, il est capable le reste du temps d'une grande excentricité.
 Mme Poipoi : cliente régulière, elle est généralement accompagnée de monsieur Henri.
 M. Robert : client régulier, dîne souvent avec monsieur Henri et madame Poipoi.
@@ -598,9 +656,43 @@
 Mme Mochu : cliente hautaine et particulièrement laide malgré tout le soin qu'elle porte à son apparence.
 Bouboule : le fils de madame Mochu.
 M. Biscotte : client pratiquant le catch sous le pseudonyme de « Poigne de Béton ».
-M. Lachaise : client, remplaçant scolaire de monsieur Tabouret, qui se brouille avec Tom-Tom dès leur première rencontre.
-L'école
-Rémi Lepoivre : meilleur ami de Tom-Tom, d'origine Guadeloupéenne, faisant partie d'une famille très sportive. Bien qu'apparemment très bon élève à l'école, il est presque aussi turbulent que les enfants Dubouchon. On le reconnait car il ne peut pas se séparer de son chapeau vert.
+M. Lachaise : client, remplaçant scolaire de monsieur Tabouret, qui se brouille avec Tom-Tom dès leur première rencontre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tom-Tom_et_Nana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tom-Tom_et_Nana</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les employés et clients du restaurant</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>L'école</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Rémi Lepoivre : meilleur ami de Tom-Tom, d'origine Guadeloupéenne, faisant partie d'une famille très sportive. Bien qu'apparemment très bon élève à l'école, il est presque aussi turbulent que les enfants Dubouchon. On le reconnait car il ne peut pas se séparer de son chapeau vert.
 Sophie Moulinet : amie de Tom-Tom, reconnaissable à ses grosses lunettes et première de classe, fille de parents riches, parfois détestable. Il semble que Tom-Tom ait un petit béguin pour elle dans certaines histoires.
 Alexandre : camarade de classe de Tom-Tom avec qui il se bagarre régulièrement.
 Fatiah : amie de Nana, assez chipie.
@@ -608,31 +700,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tom-Tom_et_Nana</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tom-Tom_et_Nana</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tom-Tom_et_Nana</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tom-Tom_et_Nana</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Gags récurrents</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>De nombreux gags récurrents pimentent la série :
 Les fêtes des pères et des mères : presque chaque année, la fête des mères — et moins régulièrement, des pères — est gâchée par un événement de dernière minute, et toute l'histoire est occupée par les tentatives de Tom-Tom et Nana de sauver la fête ;
@@ -645,35 +739,72 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Tom-Tom_et_Nana</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tom-Tom_et_Nana</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tom-Tom_et_Nana</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tom-Tom_et_Nana</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Albums</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Les histoires sont régulièrement regroupées dans des albums dédiés[5],[6]. La première collection débute en 1985 et regroupe les aventures de Tom-Tom Dubouchon.  Chaque album est composé de neuf histoires de dix planches chacune.
-Tom-Tom et Nana
-Tom-Tom et l'impossible Nana — (BNF 34780273)
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les histoires sont régulièrement regroupées dans des albums dédiés,. La première collection débute en 1985 et regroupe les aventures de Tom-Tom Dubouchon.  Chaque album est composé de neuf histoires de dix planches chacune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tom-Tom_et_Nana</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tom-Tom_et_Nana</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tom-Tom et Nana</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tom-Tom et l'impossible Nana — (BNF 34780273)
 Tom-Tom et ses idées explosives
 Tom-Tom le roi de la tambouille
 Les cartables décollent
@@ -695,7 +826,7 @@
 Poux, papous et pas papous
 C'est magique !
 Superstars
-Dégâts à gogo !. Alph-Art jeunesse 7-8 ans au festival d'Angoulême 1999[7]
+Dégâts à gogo !. Alph-Art jeunesse 7-8 ans au festival d'Angoulême 1999
 Au zoo, les zozos !
 Les mabouls déboulent !
 Tremblez, carcasses !
@@ -706,9 +837,43 @@
 Ça roule !
 Subliiiimes !
 Ben ça, alors !
-Increvables !
-Le Meilleur de Tom-Tom et Nana
-Cette série présente des compilations d'aventures précédemment publiées.
+Increvables !</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tom-Tom_et_Nana</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tom-Tom_et_Nana</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Le Meilleur de Tom-Tom et Nana</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cette série présente des compilations d'aventures précédemment publiées.
 Méga-farces et mini gaffes
 Fous d'école, dingues de récré
 Aïe, les parents déraillent !
@@ -719,34 +884,36 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Tom-Tom_et_Nana</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tom-Tom_et_Nana</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tom-Tom_et_Nana</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tom-Tom_et_Nana</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Séries télévisées</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bande dessinée fut adaptée en 1997 en une série télévisée d'animation, diffusée à partir du 7 septembre 1998 sur France 3 dans l'émission Les Minikeums[8], Canal J en 2005, France 5 dans Zouzous depuis 2011, ou encore Tiji de 2007 à 2012. 
-Une nouvelle série inédite est diffusée sur la chaîne TéléTOON+[9] depuis le 2 septembre 2019 et disponible à la demande et sur myCANAL.
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bande dessinée fut adaptée en 1997 en une série télévisée d'animation, diffusée à partir du 7 septembre 1998 sur France 3 dans l'émission Les Minikeums, Canal J en 2005, France 5 dans Zouzous depuis 2011, ou encore Tiji de 2007 à 2012. 
+Une nouvelle série inédite est diffusée sur la chaîne TéléTOON+ depuis le 2 septembre 2019 et disponible à la demande et sur myCANAL.
 </t>
         </is>
       </c>
